--- a/files/const.xlsx
+++ b/files/const.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lukáš #2\Desktop\FOFR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vomak\OneDrive\Plocha\eshop-excel-script-main\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2C8ACA4-44A5-4B7C-9944-7B3DF184E434}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B825D6C-BDD2-4FFB-ADF9-41AB6D2DDD27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8670" yWindow="2595" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="List1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>DOBIRKA_MENA</t>
   </si>
@@ -106,6 +106,9 @@
   </si>
   <si>
     <t>F</t>
+  </si>
+  <si>
+    <t>ODESILATEL_DATUM</t>
   </si>
 </sst>
 </file>
@@ -157,13 +160,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normální" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -441,10 +445,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P2"/>
+  <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="Q1" sqref="Q1:Q1048576"/>
+      <selection activeCell="P5" sqref="P5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -460,11 +464,12 @@
     <col min="11" max="11" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="13" width="22" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="19.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="24.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="15" max="15" width="19.5703125" style="1" customWidth="1"/>
+    <col min="16" max="16" width="24.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -508,13 +513,16 @@
         <v>13</v>
       </c>
       <c r="O1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="P1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>16</v>
       </c>
@@ -555,10 +563,14 @@
       <c r="N2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="O2" s="3">
+        <f ca="1">TODAY()+1</f>
+        <v>45225</v>
+      </c>
+      <c r="P2" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="Q2" s="2" t="s">
         <v>26</v>
       </c>
     </row>
